--- a/testng/src/test/resources/testdata/testData.xlsx
+++ b/testng/src/test/resources/testdata/testData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="3555" windowWidth="14835" xWindow="0" yWindow="2520"/>
+    <workbookView windowHeight="9510" windowWidth="23715" xWindow="240" yWindow="420"/>
   </bookViews>
   <sheets>
     <sheet name="demoaut" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
   <si>
     <t>TC_ID</t>
   </si>
@@ -629,9 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -728,7 +725,9 @@
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3"/>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
@@ -755,7 +754,9 @@
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
@@ -782,7 +783,9 @@
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
@@ -809,7 +812,9 @@
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
@@ -836,7 +841,9 @@
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
